--- a/importdaten/importdaten.xlsx
+++ b/importdaten/importdaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17988" tabRatio="852"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17988" tabRatio="852" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ds_daten" sheetId="28" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">reptilien!$A$1:$G$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">tagfalter!$A$1:$G$232</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">wasserfliegen!$A$1:$G$495</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">weichtiere!$A$1:$G$293</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">weichtiere!$A$1:$G$291</definedName>
     <definedName name="areal_weltweit_einträge">[1]Legende!$N$32:$N$38</definedName>
     <definedName name="bl_anwhäuf_codes">[1]Legende!$A$77:$A$80</definedName>
     <definedName name="bl_aufwand_codes">[1]Legende!$A$93:$A$95</definedName>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12232" uniqueCount="5120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12218" uniqueCount="5120">
   <si>
     <t>D</t>
   </si>
@@ -16561,7 +16561,7 @@
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
@@ -16833,7 +16833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1544"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -46707,11 +46707,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G293"/>
+  <dimension ref="A1:G291"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:E1048576"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A265" sqref="A265:XFD265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -52246,97 +52246,97 @@
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="24" t="s">
-        <v>3255</v>
+        <v>2116</v>
       </c>
       <c r="B265" s="35" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C265" s="22" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D265" s="35" t="s">
-        <v>78</v>
-      </c>
+        <v>1216</v>
+      </c>
+      <c r="D265" s="35"/>
       <c r="E265" s="35" t="s">
-        <v>261</v>
+        <v>409</v>
       </c>
       <c r="F265" s="35" t="s">
-        <v>262</v>
+        <v>410</v>
       </c>
       <c r="G265" s="35" t="s">
-        <v>263</v>
+        <v>411</v>
       </c>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="24" t="s">
-        <v>3254</v>
+        <v>1316</v>
       </c>
       <c r="B266" s="35" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="C266" s="22" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D266" s="35" t="s">
-        <v>78</v>
+        <v>479</v>
       </c>
       <c r="E266" s="35" t="s">
-        <v>261</v>
+        <v>480</v>
       </c>
       <c r="F266" s="35" t="s">
-        <v>262</v>
+        <v>481</v>
       </c>
       <c r="G266" s="35" t="s">
-        <v>263</v>
+        <v>482</v>
       </c>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="24" t="s">
-        <v>2116</v>
+        <v>1315</v>
       </c>
       <c r="B267" s="35" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C267" s="22" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D267" s="35"/>
+        <v>1218</v>
+      </c>
+      <c r="D267" s="35" t="s">
+        <v>479</v>
+      </c>
       <c r="E267" s="35" t="s">
-        <v>409</v>
+        <v>483</v>
       </c>
       <c r="F267" s="35" t="s">
-        <v>410</v>
+        <v>484</v>
       </c>
       <c r="G267" s="35" t="s">
-        <v>411</v>
+        <v>485</v>
       </c>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="24" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B268" s="35" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="C268" s="22" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D268" s="35" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="E268" s="35" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="F268" s="35" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="G268" s="35" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="24" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B269" s="35" t="s">
         <v>12</v>
@@ -52359,53 +52359,49 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="24" t="s">
-        <v>1314</v>
+        <v>2862</v>
       </c>
       <c r="B270" s="35" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C270" s="22" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D270" s="35" t="s">
-        <v>486</v>
-      </c>
+        <v>1223</v>
+      </c>
+      <c r="D270" s="35"/>
       <c r="E270" s="35" t="s">
-        <v>487</v>
+        <v>328</v>
       </c>
       <c r="F270" s="35" t="s">
-        <v>488</v>
+        <v>329</v>
       </c>
       <c r="G270" s="35" t="s">
-        <v>489</v>
+        <v>330</v>
       </c>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="24" t="s">
-        <v>1313</v>
+        <v>2861</v>
       </c>
       <c r="B271" s="35" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C271" s="22" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D271" s="35" t="s">
-        <v>479</v>
-      </c>
+        <v>1223</v>
+      </c>
+      <c r="D271" s="35"/>
       <c r="E271" s="35" t="s">
-        <v>483</v>
+        <v>328</v>
       </c>
       <c r="F271" s="35" t="s">
-        <v>484</v>
+        <v>329</v>
       </c>
       <c r="G271" s="35" t="s">
-        <v>485</v>
+        <v>330</v>
       </c>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="24" t="s">
-        <v>2862</v>
+        <v>2783</v>
       </c>
       <c r="B272" s="35" t="s">
         <v>32</v>
@@ -52415,39 +52411,33 @@
       </c>
       <c r="D272" s="35"/>
       <c r="E272" s="35" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="F272" s="35" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="G272" s="35" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="273" spans="1:7">
       <c r="A273" s="24" t="s">
-        <v>2861</v>
+        <v>2084</v>
       </c>
       <c r="B273" s="35" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C273" s="22" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D273" s="35"/>
-      <c r="E273" s="35" t="s">
-        <v>328</v>
-      </c>
-      <c r="F273" s="35" t="s">
-        <v>329</v>
-      </c>
-      <c r="G273" s="35" t="s">
-        <v>330</v>
-      </c>
+      <c r="E273" s="35"/>
+      <c r="F273" s="35"/>
+      <c r="G273" s="35"/>
     </row>
     <row r="274" spans="1:7">
       <c r="A274" s="24" t="s">
-        <v>2783</v>
+        <v>2083</v>
       </c>
       <c r="B274" s="35" t="s">
         <v>32</v>
@@ -52457,75 +52447,77 @@
       </c>
       <c r="D274" s="35"/>
       <c r="E274" s="35" t="s">
-        <v>338</v>
+        <v>413</v>
       </c>
       <c r="F274" s="35" t="s">
-        <v>339</v>
+        <v>414</v>
       </c>
       <c r="G274" s="35" t="s">
-        <v>340</v>
+        <v>415</v>
       </c>
     </row>
     <row r="275" spans="1:7">
       <c r="A275" s="24" t="s">
-        <v>2084</v>
+        <v>1806</v>
       </c>
       <c r="B275" s="35" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C275" s="22" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D275" s="35"/>
-      <c r="E275" s="35"/>
-      <c r="F275" s="35"/>
-      <c r="G275" s="35"/>
+      <c r="E275" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="F275" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="G275" s="35" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="276" spans="1:7">
       <c r="A276" s="24" t="s">
-        <v>2083</v>
+        <v>1805</v>
       </c>
       <c r="B276" s="35" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C276" s="22" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="D276" s="35"/>
-      <c r="E276" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="F276" s="35" t="s">
-        <v>414</v>
-      </c>
-      <c r="G276" s="35" t="s">
-        <v>415</v>
-      </c>
+      <c r="E276" s="35"/>
+      <c r="F276" s="35"/>
+      <c r="G276" s="35"/>
     </row>
     <row r="277" spans="1:7">
       <c r="A277" s="24" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="B277" s="35" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C277" s="22" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D277" s="35"/>
+        <v>1219</v>
+      </c>
+      <c r="D277" s="35" t="s">
+        <v>253</v>
+      </c>
       <c r="E277" s="35" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F277" s="35" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="G277" s="35" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="278" spans="1:7">
       <c r="A278" s="24" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="B278" s="35" t="s">
         <v>3</v>
@@ -52540,89 +52532,81 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="24" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
       <c r="B279" s="35" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C279" s="22" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D279" s="35" t="s">
-        <v>253</v>
-      </c>
+        <v>1220</v>
+      </c>
+      <c r="D279" s="35"/>
       <c r="E279" s="35" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F279" s="35" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="G279" s="35" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="280" spans="1:7">
       <c r="A280" s="24" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="B280" s="35" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C280" s="22" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D280" s="35"/>
-      <c r="E280" s="35"/>
-      <c r="F280" s="35"/>
-      <c r="G280" s="35"/>
+        <v>1219</v>
+      </c>
+      <c r="D280" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="E280" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="F280" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="G280" s="35" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="24" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="B281" s="35" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C281" s="22" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D281" s="35"/>
-      <c r="E281" s="35" t="s">
-        <v>429</v>
-      </c>
-      <c r="F281" s="35" t="s">
-        <v>430</v>
-      </c>
-      <c r="G281" s="35" t="s">
-        <v>431</v>
-      </c>
+      <c r="E281" s="35"/>
+      <c r="F281" s="35"/>
+      <c r="G281" s="35"/>
     </row>
     <row r="282" spans="1:7">
       <c r="A282" s="24" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="B282" s="35" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C282" s="22" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D282" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="E282" s="35" t="s">
-        <v>432</v>
-      </c>
-      <c r="F282" s="35" t="s">
-        <v>433</v>
-      </c>
-      <c r="G282" s="35" t="s">
-        <v>434</v>
-      </c>
+        <v>1221</v>
+      </c>
+      <c r="D282" s="35"/>
+      <c r="E282" s="35"/>
+      <c r="F282" s="35"/>
+      <c r="G282" s="35"/>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="24" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="B283" s="35" t="s">
         <v>3</v>
@@ -52637,22 +52621,28 @@
     </row>
     <row r="284" spans="1:7">
       <c r="A284" s="24" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="B284" s="35" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C284" s="22" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D284" s="35"/>
-      <c r="E284" s="35"/>
-      <c r="F284" s="35"/>
-      <c r="G284" s="35"/>
+      <c r="E284" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="F284" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="G284" s="35" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" s="24" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="B285" s="35" t="s">
         <v>3</v>
@@ -52667,34 +52657,36 @@
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="24" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="B286" s="35" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C286" s="22" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D286" s="35"/>
+        <v>1218</v>
+      </c>
+      <c r="D286" s="35" t="s">
+        <v>438</v>
+      </c>
       <c r="E286" s="35" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="F286" s="35" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="G286" s="35" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="24" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="B287" s="35" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C287" s="22" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D287" s="35"/>
       <c r="E287" s="35"/>
@@ -52703,118 +52695,80 @@
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="24" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="B288" s="35" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C288" s="22" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D288" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="E288" s="35" t="s">
-        <v>439</v>
-      </c>
-      <c r="F288" s="35" t="s">
-        <v>440</v>
-      </c>
-      <c r="G288" s="35" t="s">
-        <v>441</v>
-      </c>
+        <v>1221</v>
+      </c>
+      <c r="D288" s="35"/>
+      <c r="E288" s="35"/>
+      <c r="F288" s="35"/>
+      <c r="G288" s="35"/>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" s="24" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="B289" s="35" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C289" s="22" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="D289" s="35"/>
-      <c r="E289" s="35"/>
-      <c r="F289" s="35"/>
-      <c r="G289" s="35"/>
+      <c r="E289" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="F289" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="G289" s="35" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="24" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="B290" s="35" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C290" s="22" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D290" s="35"/>
-      <c r="E290" s="35"/>
-      <c r="F290" s="35"/>
-      <c r="G290" s="35"/>
+        <v>1219</v>
+      </c>
+      <c r="D290" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="E290" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="F290" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="G290" s="35" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="291" spans="1:7">
       <c r="A291" s="24" t="s">
-        <v>1792</v>
+        <v>1528</v>
       </c>
       <c r="B291" s="35" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C291" s="22" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D291" s="35"/>
-      <c r="E291" s="35" t="s">
-        <v>423</v>
-      </c>
-      <c r="F291" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="G291" s="35" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
-      <c r="A292" s="24" t="s">
-        <v>1791</v>
-      </c>
-      <c r="B292" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C292" s="22" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D292" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="E292" s="35" t="s">
-        <v>442</v>
-      </c>
-      <c r="F292" s="35" t="s">
-        <v>443</v>
-      </c>
-      <c r="G292" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
-      <c r="A293" s="24" t="s">
-        <v>1528</v>
-      </c>
-      <c r="B293" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C293" s="22" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D293" s="35"/>
-      <c r="E293" s="35"/>
-      <c r="F293" s="35"/>
-      <c r="G293" s="35"/>
+      <c r="E291" s="35"/>
+      <c r="F291" s="35"/>
+      <c r="G291" s="35"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G293"/>
+  <autoFilter ref="A1:G291"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="41" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -52832,7 +52786,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A265:A267</xm:sqref>
+          <xm:sqref>A265</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsErrors" priority="1106" stopIfTrue="1" id="{CEE64E31-7C0E-471D-B570-9952188B54C0}">
@@ -52845,7 +52799,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A272:A279</xm:sqref>
+          <xm:sqref>A270:A277</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsErrors" priority="1107" stopIfTrue="1" id="{3C03358B-16A3-43D6-964C-54D2D44C31B7}">
@@ -52858,7 +52812,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A268:A271 A263:A264</xm:sqref>
+          <xm:sqref>A266:A269 A263:A264</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsErrors" priority="1109" stopIfTrue="1" id="{3C03358B-16A3-43D6-964C-54D2D44C31B7}">
@@ -52923,7 +52877,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A280:A293</xm:sqref>
+          <xm:sqref>A278:A291</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsErrors" priority="1114" stopIfTrue="1" id="{3C03358B-16A3-43D6-964C-54D2D44C31B7}">
